--- a/Median_PGDP_Level.xlsx
+++ b/Median_PGDP_Level.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b09e99cea646701/Bloomberg/Projects/FOMC/FOMC Paper/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b09e99cea646701/Bloomberg/Projects/FOMC/FOMC Paper/FOMC_Sentiment_Macro_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_80747DD93181FB906681AA4EF5CF83FB337AAEFB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7A4140ED-4D18-47DA-9A90-5BDD08604110}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_80747DD93181FB906681AA4EF5CF83FB337AAEFB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8DB4D219-2CBE-4EEE-B14D-71257742267A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21108" yWindow="396" windowWidth="9576" windowHeight="14736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Median_Level" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -260,8 +260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
@@ -6993,10 +6993,7 @@
       </c>
     </row>
     <row r="211" spans="1:10" ht="13.05" customHeight="1">
-      <c r="D211" s="5">
-        <f>(D210-C210)/C210*100</f>
-        <v>0.40093096785526566</v>
-      </c>
+      <c r="D211" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
